--- a/ElectronicObserver/Window/Tools/SortieRecordViewer/Sortie/Battle/BattleData.xlsx
+++ b/ElectronicObserver/Window/Tools/SortieRecordViewer/Sortie/Battle/BattleData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ElectronicObserver\ElectronicObserver\Window\Tools\SortieRecordViewer\Sortie\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC2DCC-3F60-4CE0-92EB-6BCBA03C55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1CA9AA-5AB4-4F10-A3F8-C78694646540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AEA5B2E-BC3F-4168-8928-98A26DBC5627}"/>
   </bookViews>
   <sheets>
     <sheet name="Battle" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Battle!$D$3:$AA$25</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>BattleAirBattle</t>
   </si>
@@ -307,9 +306,6 @@
   </si>
   <si>
     <t>PhaseRadar</t>
-  </si>
-  <si>
-    <t>PhaseRadar is the same as PhaseShelling</t>
   </si>
   <si>
     <t>BattleCombinedWater</t>
@@ -465,28 +461,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -842,10 +817,10 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,16 +905,16 @@
         <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V1" t="s">
         <v>62</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y1" t="s">
         <v>63</v>
@@ -1078,7 +1053,7 @@
         <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V3" t="s">
         <v>74</v>
@@ -1087,7 +1062,7 @@
         <v>74</v>
       </c>
       <c r="X3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" t="s">
         <v>53</v>
@@ -1525,13 +1500,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1581,13 +1556,13 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1637,13 +1612,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1702,13 +1677,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
         <v>104</v>
       </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1728,13 +1703,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1760,13 +1735,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1813,13 +1788,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1878,13 +1853,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1904,13 +1879,13 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1930,13 +1905,13 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1968,13 +1943,13 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2013,27 +1988,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85547355-1136-4AD5-A303-E3643084F7C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>